--- a/project-schedule.xlsx
+++ b/project-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amahanty/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B41F0CE-F11B-0543-BC14-D6A24BAEB66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62C23D1-9D15-0F4D-ADE4-87379EFB4195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Week</t>
   </si>
@@ -129,6 +129,9 @@
   <si>
     <t>Create a screencast of all the steps and upload to youtube.</t>
   </si>
+  <si>
+    <t>Create azure devops pipeline.</t>
+  </si>
 </sst>
 </file>
 
@@ -138,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -163,6 +166,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -197,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -215,6 +223,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +442,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -905,8 +914,8 @@
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
+      <c r="C15" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -998,11 +1007,11 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
-        <v>32</v>
+      <c r="B18" s="13" t="s">
+        <v>36</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>14</v>
+      <c r="C18" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1029,14 +1038,12 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
-        <v>44602</v>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>32</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1063,9 +1070,11 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5">
+        <v>44602</v>
+      </c>
       <c r="B20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>15</v>
@@ -1095,14 +1104,12 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
-        <v>44842</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1129,12 +1136,14 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5">
+        <v>44842</v>
+      </c>
       <c r="B22" s="7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1163,10 +1172,10 @@
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1195,7 +1204,7 @@
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -1225,69 +1234,71 @@
       <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1316,7 +1327,9 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1342,77 +1355,77 @@
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+    </row>
+    <row r="30" spans="1:26" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-    </row>
-    <row r="31" spans="1:26" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+    </row>
+    <row r="32" spans="1:26" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
@@ -2030,7 +2043,7 @@
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
     </row>
-    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="11"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -28854,6 +28867,34 @@
       <c r="Y1012" s="7"/>
       <c r="Z1012" s="7"/>
     </row>
+    <row r="1013" spans="1:26" ht="13" x14ac:dyDescent="0.15">
+      <c r="A1013" s="11"/>
+      <c r="B1013" s="7"/>
+      <c r="C1013" s="7"/>
+      <c r="D1013" s="7"/>
+      <c r="E1013" s="7"/>
+      <c r="F1013" s="7"/>
+      <c r="G1013" s="7"/>
+      <c r="H1013" s="7"/>
+      <c r="I1013" s="7"/>
+      <c r="J1013" s="7"/>
+      <c r="K1013" s="7"/>
+      <c r="L1013" s="7"/>
+      <c r="M1013" s="7"/>
+      <c r="N1013" s="7"/>
+      <c r="O1013" s="7"/>
+      <c r="P1013" s="7"/>
+      <c r="Q1013" s="7"/>
+      <c r="R1013" s="7"/>
+      <c r="S1013" s="7"/>
+      <c r="T1013" s="7"/>
+      <c r="U1013" s="7"/>
+      <c r="V1013" s="7"/>
+      <c r="W1013" s="7"/>
+      <c r="X1013" s="7"/>
+      <c r="Y1013" s="7"/>
+      <c r="Z1013" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
